--- a/Dados/clientes_registrados.xlsx
+++ b/Dados/clientes_registrados.xlsx
@@ -1,90 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c06e1d40620fab6c/Documentos/Python Scripts/cliente/venv/Script_Clients/Dados/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2BB167641FA3B43724D6B7B04E3088B35299F17C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD0F9D3B-2B13-45E4-8477-10A2F8304CAD}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-17490" yWindow="930" windowWidth="15345" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="teste" sheetId="1" r:id="rId1"/>
+    <sheet name="teste" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Middlename</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>CPF</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>RG</t>
-  </si>
-  <si>
-    <t>Shophia</t>
-  </si>
-  <si>
-    <t>Jhonson</t>
-  </si>
-  <si>
-    <t>Felipe</t>
-  </si>
-  <si>
-    <t>Pereira</t>
-  </si>
-  <si>
-    <t>Caroline</t>
-  </si>
-  <si>
-    <t>Souza</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Rodrigues</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -99,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -423,120 +420,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Middlename</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CPF</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RG</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Shophia</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jhonson</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>18</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>16257316866</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>1.8</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>123212355</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Felipe</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>18</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>23864088844</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>1.8</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>552376632</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Caroline</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Souza</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>22</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>11350590800</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>1.64</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>231342512</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rodrigues</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>41</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>16257310865</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>1.8</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>312313123</v>
       </c>
     </row>

--- a/Dados/clientes_registrados.xlsx
+++ b/Dados/clientes_registrados.xlsx
@@ -76,7 +76,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -129,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,15 +143,15 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
@@ -160,9 +160,6 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,7 +475,7 @@
     <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -504,7 +501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -527,7 +524,7 @@
         <v>7535</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -550,7 +547,7 @@
         <v>3159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -573,7 +570,7 @@
         <v>7051</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>

--- a/Dados/clientes_registrados.xlsx
+++ b/Dados/clientes_registrados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -25,40 +25,34 @@
     <t>Age</t>
   </si>
   <si>
+    <t>Height</t>
+  </si>
+  <si>
     <t>CPF</t>
   </si>
   <si>
-    <t>Height</t>
-  </si>
-  <si>
     <t>RG</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
+    <t>Caroline</t>
+  </si>
+  <si>
+    <t>Souza</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Rodrigues</t>
+  </si>
+  <si>
     <t>Felipe</t>
   </si>
   <si>
     <t>Pereira</t>
-  </si>
-  <si>
-    <t>Caroline</t>
-  </si>
-  <si>
-    <t>Souza</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Rodrigues</t>
-  </si>
-  <si>
-    <t>Eduardo</t>
-  </si>
-  <si>
-    <t>Gomes</t>
   </si>
 </sst>
 </file>
@@ -76,7 +70,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -129,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,15 +137,15 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
@@ -160,6 +154,9 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,7 +460,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -472,10 +469,10 @@
     <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -488,10 +485,10 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -501,7 +498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -509,22 +506,22 @@
         <v>8</v>
       </c>
       <c r="C2" s="5">
-        <v>18</v>
-      </c>
-      <c r="D2" s="5">
-        <v>23864088844</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1.8</v>
+        <v>22</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1.64</v>
+      </c>
+      <c r="E2" s="5">
+        <v>11350590800</v>
       </c>
       <c r="F2" s="5">
-        <v>552376632</v>
+        <v>231342512</v>
       </c>
       <c r="G2" s="5">
-        <v>7535</v>
+        <v>2580</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -532,22 +529,22 @@
         <v>10</v>
       </c>
       <c r="C3" s="5">
-        <v>22</v>
-      </c>
-      <c r="D3" s="5">
-        <v>11350590800</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1.64</v>
+        <v>41</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>16257310865</v>
       </c>
       <c r="F3" s="5">
-        <v>231342512</v>
+        <v>312313123</v>
       </c>
       <c r="G3" s="5">
-        <v>3159</v>
+        <v>3574</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -555,42 +552,19 @@
         <v>12</v>
       </c>
       <c r="C4" s="5">
-        <v>41</v>
-      </c>
-      <c r="D4" s="5">
-        <v>16257310865</v>
-      </c>
-      <c r="E4" s="6">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6">
         <v>1.8</v>
       </c>
+      <c r="E4" s="5">
+        <v>23864088844</v>
+      </c>
       <c r="F4" s="5">
-        <v>312313123</v>
+        <v>552376632</v>
       </c>
       <c r="G4" s="7">
-        <v>7051</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5">
-        <v>19</v>
-      </c>
-      <c r="D5" s="5">
-        <v>31155025083</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="F5" s="5">
-        <v>321321232</v>
-      </c>
-      <c r="G5" s="7">
-        <v>8107</v>
+        <v>5943</v>
       </c>
     </row>
   </sheetData>
